--- a/assets/template/import/pengguna.xlsx
+++ b/assets/template/import/pengguna.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>NIS/NIP</t>
   </si>
@@ -156,25 +156,31 @@
     <t>Jika ada penambahan level, sesuaikan saja dengan Menu Level</t>
   </si>
   <si>
-    <t>TU</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
-    <t>mail@mail.com</t>
-  </si>
-  <si>
-    <t>+628765433</t>
-  </si>
-  <si>
-    <t>3030301</t>
-  </si>
-  <si>
-    <t>+62890877</t>
-  </si>
-  <si>
-    <t>30303012</t>
+    <t>Bayu</t>
+  </si>
+  <si>
+    <t>pass@mail.com</t>
+  </si>
+  <si>
+    <t>+628970987655</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>123451</t>
   </si>
 </sst>
 </file>
@@ -700,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,16 +836,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
@@ -847,63 +853,87 @@
       <c r="F9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>5</v>
       </c>
-      <c r="H11" t="s">
-        <v>6</v>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -921,9 +951,11 @@
     <hyperlink ref="E9" r:id="rId1"/>
     <hyperlink ref="E10" r:id="rId2"/>
     <hyperlink ref="E11" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4"/>
+    <hyperlink ref="E13" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/assets/template/import/pengguna.xlsx
+++ b/assets/template/import/pengguna.xlsx
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>NIS/NIP</t>
   </si>
@@ -154,33 +154,6 @@
   </si>
   <si>
     <t>Jika ada penambahan level, sesuaikan saja dengan Menu Level</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>Bayu</t>
-  </si>
-  <si>
-    <t>pass@mail.com</t>
-  </si>
-  <si>
-    <t>+628970987655</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>1234567</t>
-  </si>
-  <si>
-    <t>12345678</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>123451</t>
   </si>
 </sst>
 </file>
@@ -709,7 +682,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,106 +808,21 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -947,15 +835,8 @@
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="D5:H5"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1"/>
-    <hyperlink ref="E10" r:id="rId2"/>
-    <hyperlink ref="E11" r:id="rId3"/>
-    <hyperlink ref="E12" r:id="rId4"/>
-    <hyperlink ref="E13" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>